--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="472">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -40,22 +40,43 @@
     <t>Reverse the array</t>
   </si>
   <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>Find the maximum and minimum element in an array</t>
   </si>
   <si>
+    <t>Day1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>nlogn</t>
+  </si>
+  <si>
     <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
   </si>
   <si>
     <t xml:space="preserve">Move all the negative elements to one side of the array </t>
   </si>
   <si>
+    <t>Must Revise</t>
+  </si>
+  <si>
     <t>Find the Union and Intersection of the two sorted arrays.</t>
   </si>
   <si>
     <t>Write a program to cyclically rotate an array by one.</t>
+  </si>
+  <si>
+    <t>Unique and O(n)</t>
+  </si>
+  <si>
+    <t>Day 2</t>
   </si>
   <si>
     <t>find Largest sum contiguous Subarray [V. IMP]</t>
@@ -1416,12 +1437,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1470,6 +1491,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="16"/>
       <color theme="10"/>
@@ -1496,6 +1525,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1508,22 +1566,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1542,6 +1585,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1571,7 +1621,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1579,21 +1636,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1607,21 +1650,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -1629,14 +1657,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1651,25 +1680,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1687,37 +1776,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1729,61 +1824,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1801,19 +1842,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1825,13 +1866,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1842,6 +1877,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1886,35 +1945,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1936,159 +1969,161 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2108,12 +2143,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2435,13 +2477,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="D181" sqref="D181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
@@ -2474,7 +2516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="21" spans="1:3">
+    <row r="6" ht="21" spans="1:4">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -2484,112 +2526,145 @@
       <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" ht="21" spans="1:3">
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" ht="21" spans="1:6">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" ht="21" spans="1:3">
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" ht="21" spans="1:5">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" ht="21" spans="1:3">
+      <c r="B8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="21" spans="1:4">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" ht="21" spans="1:3">
+      <c r="B9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="21" spans="1:4">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>5</v>
+      <c r="B10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="21" spans="1:3">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" ht="21" spans="1:3">
+      <c r="B11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" ht="21" spans="1:6">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" ht="21" spans="1:3">
+      <c r="B12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" ht="21" spans="1:4">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" ht="21" spans="1:3">
+      <c r="B13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="21" spans="1:4">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>15</v>
+      <c r="B14" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" ht="21" spans="1:3">
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="21" spans="1:4">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>16</v>
+      <c r="B15" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="21" spans="1:3">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>17</v>
+      <c r="B16" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>5</v>
@@ -2599,8 +2674,8 @@
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>18</v>
+      <c r="B17" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>5</v>
@@ -2610,8 +2685,8 @@
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>19</v>
+      <c r="B18" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>5</v>
@@ -2621,8 +2696,8 @@
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>20</v>
+      <c r="B19" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>5</v>
@@ -2632,8 +2707,8 @@
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>21</v>
+      <c r="B20" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>5</v>
@@ -2643,8 +2718,8 @@
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>22</v>
+      <c r="B21" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>5</v>
@@ -2654,8 +2729,8 @@
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>23</v>
+      <c r="B22" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>5</v>
@@ -2665,8 +2740,8 @@
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>24</v>
+      <c r="B23" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>5</v>
@@ -2676,8 +2751,8 @@
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>25</v>
+      <c r="B24" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>5</v>
@@ -2687,8 +2762,8 @@
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>26</v>
+      <c r="B25" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>5</v>
@@ -2698,8 +2773,8 @@
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>27</v>
+      <c r="B26" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>5</v>
@@ -2709,8 +2784,8 @@
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>28</v>
+      <c r="B27" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>5</v>
@@ -2720,8 +2795,8 @@
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>29</v>
+      <c r="B28" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>5</v>
@@ -2731,8 +2806,8 @@
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>30</v>
+      <c r="B29" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>5</v>
@@ -2742,8 +2817,8 @@
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>31</v>
+      <c r="B30" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>5</v>
@@ -2753,8 +2828,8 @@
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>32</v>
+      <c r="B31" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>5</v>
@@ -2764,8 +2839,8 @@
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>33</v>
+      <c r="B32" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>5</v>
@@ -2775,8 +2850,8 @@
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>34</v>
+      <c r="B33" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>5</v>
@@ -2786,8 +2861,8 @@
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>35</v>
+      <c r="B34" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>5</v>
@@ -2797,8 +2872,8 @@
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>36</v>
+      <c r="B35" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>5</v>
@@ -2808,8 +2883,8 @@
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>37</v>
+      <c r="B36" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>5</v>
@@ -2819,8 +2894,8 @@
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>38</v>
+      <c r="B37" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>5</v>
@@ -2830,8 +2905,8 @@
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>39</v>
+      <c r="B38" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>5</v>
@@ -2841,8 +2916,8 @@
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>40</v>
+      <c r="B39" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>5</v>
@@ -2852,8 +2927,8 @@
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>41</v>
+      <c r="B40" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>5</v>
@@ -2863,131 +2938,131 @@
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>42</v>
+      <c r="B41" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="42" ht="21" spans="2:3">
-      <c r="B42" s="10"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" ht="21" spans="1:3">
       <c r="A43" s="6"/>
-      <c r="B43" s="10"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" ht="21" spans="1:3">
-      <c r="A44" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>44</v>
+      <c r="A44" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="45" ht="21" spans="1:3">
-      <c r="A45" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>45</v>
+      <c r="A45" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="46" ht="21" spans="1:3">
-      <c r="A46" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>46</v>
+      <c r="A46" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" ht="21" spans="1:3">
-      <c r="A47" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>47</v>
+      <c r="A47" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" ht="21" spans="1:3">
-      <c r="A48" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>48</v>
+      <c r="A48" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="49" ht="21" spans="1:3">
-      <c r="A49" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>49</v>
+      <c r="A49" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="50" ht="21" spans="1:3">
-      <c r="A50" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" s="9" t="s">
+      <c r="A50" s="14" t="s">
         <v>50</v>
       </c>
+      <c r="B50" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="C50" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="51" ht="21" spans="1:3">
-      <c r="A51" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>51</v>
+      <c r="A51" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="52" ht="21" spans="1:3">
-      <c r="A52" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>52</v>
+      <c r="A52" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="53" ht="21" spans="1:3">
-      <c r="A53" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>53</v>
+      <c r="A53" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>5</v>
@@ -2995,15 +3070,15 @@
     </row>
     <row r="55" ht="21" spans="1:3">
       <c r="A55" s="6"/>
-      <c r="B55" s="10"/>
+      <c r="B55" s="13"/>
       <c r="C55" s="5"/>
     </row>
     <row r="56" ht="21" spans="1:3">
       <c r="A56" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>5</v>
@@ -3011,10 +3086,10 @@
     </row>
     <row r="57" ht="21" spans="1:3">
       <c r="A57" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>5</v>
@@ -3022,10 +3097,10 @@
     </row>
     <row r="58" ht="21" spans="1:3">
       <c r="A58" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>5</v>
@@ -3033,10 +3108,10 @@
     </row>
     <row r="59" ht="21" spans="1:3">
       <c r="A59" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>5</v>
@@ -3044,10 +3119,10 @@
     </row>
     <row r="60" ht="21" spans="1:3">
       <c r="A60" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>5</v>
@@ -3055,10 +3130,10 @@
     </row>
     <row r="61" ht="21" spans="1:3">
       <c r="A61" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>5</v>
@@ -3066,10 +3141,10 @@
     </row>
     <row r="62" ht="21" spans="1:3">
       <c r="A62" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B62" s="9" t="s">
         <v>61</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>5</v>
@@ -3077,10 +3152,10 @@
     </row>
     <row r="63" ht="21" spans="1:3">
       <c r="A63" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>5</v>
@@ -3088,10 +3163,10 @@
     </row>
     <row r="64" ht="21" spans="1:3">
       <c r="A64" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>5</v>
@@ -3099,10 +3174,10 @@
     </row>
     <row r="65" ht="21" spans="1:3">
       <c r="A65" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>5</v>
@@ -3110,10 +3185,10 @@
     </row>
     <row r="66" ht="21" spans="1:3">
       <c r="A66" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>5</v>
@@ -3121,10 +3196,10 @@
     </row>
     <row r="67" ht="21" spans="1:3">
       <c r="A67" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>5</v>
@@ -3132,10 +3207,10 @@
     </row>
     <row r="68" ht="21" spans="1:3">
       <c r="A68" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>5</v>
@@ -3143,10 +3218,10 @@
     </row>
     <row r="69" ht="21" spans="1:3">
       <c r="A69" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>5</v>
@@ -3154,10 +3229,10 @@
     </row>
     <row r="70" ht="21" spans="1:3">
       <c r="A70" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>5</v>
@@ -3165,10 +3240,10 @@
     </row>
     <row r="71" ht="21" spans="1:3">
       <c r="A71" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>70</v>
+        <v>61</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>5</v>
@@ -3176,10 +3251,10 @@
     </row>
     <row r="72" ht="21" spans="1:3">
       <c r="A72" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>5</v>
@@ -3187,10 +3262,10 @@
     </row>
     <row r="73" ht="21" spans="1:3">
       <c r="A73" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>72</v>
+        <v>61</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>5</v>
@@ -3198,10 +3273,10 @@
     </row>
     <row r="74" ht="21" spans="1:3">
       <c r="A74" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>73</v>
+        <v>61</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>5</v>
@@ -3209,10 +3284,10 @@
     </row>
     <row r="75" ht="21" spans="1:3">
       <c r="A75" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>74</v>
+        <v>61</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>5</v>
@@ -3220,10 +3295,10 @@
     </row>
     <row r="76" ht="21" spans="1:3">
       <c r="A76" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>75</v>
+        <v>61</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>5</v>
@@ -3231,10 +3306,10 @@
     </row>
     <row r="77" ht="21" spans="1:3">
       <c r="A77" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>5</v>
@@ -3242,10 +3317,10 @@
     </row>
     <row r="78" ht="21" spans="1:3">
       <c r="A78" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>77</v>
+        <v>61</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>5</v>
@@ -3253,10 +3328,10 @@
     </row>
     <row r="79" ht="21" spans="1:3">
       <c r="A79" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>78</v>
+        <v>61</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>5</v>
@@ -3264,10 +3339,10 @@
     </row>
     <row r="80" ht="21" spans="1:3">
       <c r="A80" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>79</v>
+        <v>61</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>5</v>
@@ -3275,10 +3350,10 @@
     </row>
     <row r="81" ht="21" spans="1:3">
       <c r="A81" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>80</v>
+        <v>61</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>5</v>
@@ -3286,10 +3361,10 @@
     </row>
     <row r="82" ht="21" spans="1:3">
       <c r="A82" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>81</v>
+        <v>61</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>5</v>
@@ -3297,10 +3372,10 @@
     </row>
     <row r="83" ht="21" spans="1:3">
       <c r="A83" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>82</v>
+        <v>61</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>5</v>
@@ -3308,10 +3383,10 @@
     </row>
     <row r="84" ht="21" spans="1:3">
       <c r="A84" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>83</v>
+        <v>61</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>5</v>
@@ -3319,10 +3394,10 @@
     </row>
     <row r="85" ht="21" spans="1:3">
       <c r="A85" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>84</v>
+        <v>61</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>5</v>
@@ -3330,10 +3405,10 @@
     </row>
     <row r="86" ht="21" spans="1:3">
       <c r="A86" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>85</v>
+        <v>61</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>5</v>
@@ -3341,10 +3416,10 @@
     </row>
     <row r="87" ht="21" spans="1:3">
       <c r="A87" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>86</v>
+        <v>61</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>5</v>
@@ -3352,10 +3427,10 @@
     </row>
     <row r="88" ht="21" spans="1:3">
       <c r="A88" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>87</v>
+        <v>61</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>5</v>
@@ -3363,10 +3438,10 @@
     </row>
     <row r="89" ht="21" spans="1:3">
       <c r="A89" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>88</v>
+        <v>61</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>5</v>
@@ -3374,10 +3449,10 @@
     </row>
     <row r="90" ht="21" spans="1:3">
       <c r="A90" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>89</v>
+        <v>61</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>5</v>
@@ -3385,10 +3460,10 @@
     </row>
     <row r="91" ht="21" spans="1:3">
       <c r="A91" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>90</v>
+        <v>61</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>5</v>
@@ -3396,10 +3471,10 @@
     </row>
     <row r="92" ht="21" spans="1:3">
       <c r="A92" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>91</v>
+        <v>61</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>5</v>
@@ -3407,10 +3482,10 @@
     </row>
     <row r="93" ht="21" spans="1:3">
       <c r="A93" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>92</v>
+        <v>61</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>5</v>
@@ -3418,10 +3493,10 @@
     </row>
     <row r="94" ht="21" spans="1:3">
       <c r="A94" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>93</v>
+        <v>61</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>5</v>
@@ -3429,10 +3504,10 @@
     </row>
     <row r="95" ht="21" spans="1:3">
       <c r="A95" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>94</v>
+        <v>61</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>5</v>
@@ -3440,10 +3515,10 @@
     </row>
     <row r="96" ht="21" spans="1:3">
       <c r="A96" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>95</v>
+        <v>61</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>5</v>
@@ -3451,10 +3526,10 @@
     </row>
     <row r="97" ht="21" spans="1:3">
       <c r="A97" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>96</v>
+        <v>61</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>5</v>
@@ -3462,26 +3537,26 @@
     </row>
     <row r="98" ht="21" spans="1:3">
       <c r="A98" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>97</v>
+        <v>61</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="100" ht="21" spans="1:3">
-      <c r="A100" s="11"/>
-      <c r="B100" s="10"/>
+      <c r="A100" s="14"/>
+      <c r="B100" s="13"/>
       <c r="C100" s="5"/>
     </row>
     <row r="101" ht="21" spans="1:3">
       <c r="A101" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>99</v>
+        <v>105</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>5</v>
@@ -3489,10 +3564,10 @@
     </row>
     <row r="102" ht="21" spans="1:3">
       <c r="A102" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>100</v>
+        <v>105</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>5</v>
@@ -3500,10 +3575,10 @@
     </row>
     <row r="103" ht="21" spans="1:3">
       <c r="A103" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>5</v>
@@ -3511,10 +3586,10 @@
     </row>
     <row r="104" ht="21" spans="1:3">
       <c r="A104" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>5</v>
@@ -3522,10 +3597,10 @@
     </row>
     <row r="105" ht="21" spans="1:3">
       <c r="A105" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>5</v>
@@ -3533,10 +3608,10 @@
     </row>
     <row r="106" ht="21" spans="1:3">
       <c r="A106" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>5</v>
@@ -3544,10 +3619,10 @@
     </row>
     <row r="107" ht="21" spans="1:3">
       <c r="A107" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B107" s="9" t="s">
         <v>105</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>5</v>
@@ -3555,10 +3630,10 @@
     </row>
     <row r="108" ht="21" spans="1:3">
       <c r="A108" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>5</v>
@@ -3566,10 +3641,10 @@
     </row>
     <row r="109" ht="21" spans="1:3">
       <c r="A109" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>5</v>
@@ -3577,10 +3652,10 @@
     </row>
     <row r="110" ht="21" spans="1:3">
       <c r="A110" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>5</v>
@@ -3588,10 +3663,10 @@
     </row>
     <row r="111" ht="21" spans="1:3">
       <c r="A111" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>5</v>
@@ -3599,10 +3674,10 @@
     </row>
     <row r="112" ht="21" spans="1:3">
       <c r="A112" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>5</v>
@@ -3610,10 +3685,10 @@
     </row>
     <row r="113" ht="21" spans="1:3">
       <c r="A113" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>111</v>
+        <v>105</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>5</v>
@@ -3621,10 +3696,10 @@
     </row>
     <row r="114" ht="21" spans="1:3">
       <c r="A114" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>112</v>
+        <v>105</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>5</v>
@@ -3632,10 +3707,10 @@
     </row>
     <row r="115" ht="21" spans="1:3">
       <c r="A115" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>113</v>
+        <v>105</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>5</v>
@@ -3643,10 +3718,10 @@
     </row>
     <row r="116" ht="21" spans="1:3">
       <c r="A116" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>114</v>
+        <v>105</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>5</v>
@@ -3654,10 +3729,10 @@
     </row>
     <row r="117" ht="21" spans="1:3">
       <c r="A117" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>115</v>
+        <v>105</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>5</v>
@@ -3665,10 +3740,10 @@
     </row>
     <row r="118" ht="21" spans="1:3">
       <c r="A118" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>116</v>
+        <v>105</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>5</v>
@@ -3676,10 +3751,10 @@
     </row>
     <row r="119" ht="21" spans="1:3">
       <c r="A119" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>117</v>
+        <v>105</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>5</v>
@@ -3687,10 +3762,10 @@
     </row>
     <row r="120" ht="21" spans="1:3">
       <c r="A120" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>118</v>
+        <v>105</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>5</v>
@@ -3698,10 +3773,10 @@
     </row>
     <row r="121" ht="21" spans="1:3">
       <c r="A121" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>119</v>
+        <v>105</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>5</v>
@@ -3709,10 +3784,10 @@
     </row>
     <row r="122" ht="21" spans="1:3">
       <c r="A122" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>120</v>
+        <v>105</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>5</v>
@@ -3720,10 +3795,10 @@
     </row>
     <row r="123" ht="21" spans="1:3">
       <c r="A123" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>121</v>
+        <v>105</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>5</v>
@@ -3731,10 +3806,10 @@
     </row>
     <row r="124" ht="21" spans="1:3">
       <c r="A124" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>122</v>
+        <v>105</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>5</v>
@@ -3742,10 +3817,10 @@
     </row>
     <row r="125" ht="21" spans="1:3">
       <c r="A125" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>123</v>
+        <v>105</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>5</v>
@@ -3753,10 +3828,10 @@
     </row>
     <row r="126" ht="21" spans="1:3">
       <c r="A126" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>124</v>
+        <v>105</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>5</v>
@@ -3764,10 +3839,10 @@
     </row>
     <row r="127" ht="21" spans="1:3">
       <c r="A127" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>125</v>
+        <v>105</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>5</v>
@@ -3775,10 +3850,10 @@
     </row>
     <row r="128" ht="21" spans="1:3">
       <c r="A128" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>126</v>
+        <v>105</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>5</v>
@@ -3786,10 +3861,10 @@
     </row>
     <row r="129" ht="21" spans="1:3">
       <c r="A129" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>127</v>
+        <v>105</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>5</v>
@@ -3797,10 +3872,10 @@
     </row>
     <row r="130" ht="21" spans="1:3">
       <c r="A130" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>128</v>
+        <v>105</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>5</v>
@@ -3808,10 +3883,10 @@
     </row>
     <row r="131" ht="21" spans="1:3">
       <c r="A131" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>129</v>
+        <v>105</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>5</v>
@@ -3819,10 +3894,10 @@
     </row>
     <row r="132" ht="21" spans="1:3">
       <c r="A132" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>130</v>
+        <v>105</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>137</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>5</v>
@@ -3830,10 +3905,10 @@
     </row>
     <row r="133" ht="21" spans="1:3">
       <c r="A133" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>131</v>
+        <v>105</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>5</v>
@@ -3841,10 +3916,10 @@
     </row>
     <row r="134" ht="21" spans="1:3">
       <c r="A134" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>132</v>
+        <v>105</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>5</v>
@@ -3852,10 +3927,10 @@
     </row>
     <row r="135" ht="21" spans="1:3">
       <c r="A135" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>133</v>
+        <v>105</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>5</v>
@@ -3863,425 +3938,425 @@
     </row>
     <row r="136" ht="21" spans="1:3">
       <c r="A136" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>134</v>
+        <v>105</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="138" ht="21" spans="2:3">
-      <c r="B138" s="10"/>
+      <c r="B138" s="13"/>
       <c r="C138" s="5"/>
     </row>
     <row r="139" ht="21" spans="1:3">
-      <c r="A139" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>136</v>
+      <c r="A139" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>143</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" ht="21" spans="1:3">
-      <c r="A140" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>137</v>
+      <c r="A140" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="141" ht="21" spans="1:3">
-      <c r="A141" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>138</v>
+      <c r="A141" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="142" ht="21" spans="1:3">
-      <c r="A142" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>139</v>
+      <c r="A142" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="143" ht="21" spans="1:3">
-      <c r="A143" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>140</v>
+      <c r="A143" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="144" ht="21" spans="1:3">
-      <c r="A144" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>141</v>
+      <c r="A144" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="145" ht="21" spans="1:3">
-      <c r="A145" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B145" s="9" t="s">
+      <c r="A145" s="14" t="s">
         <v>142</v>
       </c>
+      <c r="B145" s="12" t="s">
+        <v>149</v>
+      </c>
       <c r="C145" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="146" ht="21" spans="1:3">
-      <c r="A146" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>143</v>
+      <c r="A146" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="147" ht="21" spans="1:3">
-      <c r="A147" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>144</v>
+      <c r="A147" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="148" ht="21" spans="1:3">
-      <c r="A148" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>145</v>
+      <c r="A148" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="149" ht="21" spans="1:3">
-      <c r="A149" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>146</v>
+      <c r="A149" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="150" ht="21" spans="1:3">
-      <c r="A150" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>147</v>
+      <c r="A150" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="151" ht="21" spans="1:3">
-      <c r="A151" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>148</v>
+      <c r="A151" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>155</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="152" ht="21" spans="1:3">
-      <c r="A152" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>149</v>
+      <c r="A152" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="153" ht="21" spans="1:3">
-      <c r="A153" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>150</v>
+      <c r="A153" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="154" ht="21" spans="1:3">
-      <c r="A154" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>151</v>
+      <c r="A154" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="155" ht="21" spans="1:3">
-      <c r="A155" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>152</v>
+      <c r="A155" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="156" ht="21" spans="1:3">
-      <c r="A156" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>153</v>
+      <c r="A156" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="157" ht="21" spans="1:3">
-      <c r="A157" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>154</v>
+      <c r="A157" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="158" ht="21" spans="1:3">
-      <c r="A158" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>155</v>
+      <c r="A158" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="159" ht="21" spans="1:3">
-      <c r="A159" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>156</v>
+      <c r="A159" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="160" ht="21" spans="1:3">
-      <c r="A160" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>157</v>
+      <c r="A160" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="161" ht="21" spans="1:3">
-      <c r="A161" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>158</v>
+      <c r="A161" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="162" ht="21" spans="1:3">
-      <c r="A162" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>159</v>
+      <c r="A162" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>166</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="163" ht="21" spans="1:3">
-      <c r="A163" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>160</v>
+      <c r="A163" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="164" ht="21" spans="1:3">
-      <c r="A164" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B164" s="10" t="s">
-        <v>161</v>
+      <c r="A164" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B164" s="13" t="s">
+        <v>168</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="165" ht="21" spans="1:3">
-      <c r="A165" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>162</v>
+      <c r="A165" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B165" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="166" ht="21" spans="1:3">
-      <c r="A166" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>163</v>
+      <c r="A166" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="167" ht="21" spans="1:3">
-      <c r="A167" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>164</v>
+      <c r="A167" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B167" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="168" ht="21" spans="1:3">
-      <c r="A168" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>165</v>
+      <c r="A168" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="169" ht="21" spans="1:3">
-      <c r="A169" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B169" s="9" t="s">
-        <v>166</v>
+      <c r="A169" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B169" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="170" ht="21" spans="1:3">
-      <c r="A170" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B170" s="9" t="s">
-        <v>167</v>
+      <c r="A170" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="171" ht="21" spans="1:3">
-      <c r="A171" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>168</v>
+      <c r="A171" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B171" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="172" ht="21" spans="1:3">
-      <c r="A172" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>169</v>
+      <c r="A172" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B172" s="12" t="s">
+        <v>176</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="173" ht="21" spans="1:3">
-      <c r="A173" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B173" s="9" t="s">
-        <v>170</v>
+      <c r="A173" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="174" ht="21" spans="1:3">
-      <c r="A174" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B174" s="9" t="s">
-        <v>171</v>
+      <c r="A174" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B174" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="176" ht="21" spans="2:3">
-      <c r="B176" s="10"/>
+      <c r="B176" s="13"/>
       <c r="C176" s="5"/>
     </row>
     <row r="177" ht="21" spans="1:3">
       <c r="A177" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B177" s="9" t="s">
-        <v>173</v>
+        <v>179</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>5</v>
@@ -4289,10 +4364,10 @@
     </row>
     <row r="178" ht="21" spans="1:3">
       <c r="A178" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B178" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
+      </c>
+      <c r="B178" s="12" t="s">
+        <v>181</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>5</v>
@@ -4300,10 +4375,10 @@
     </row>
     <row r="179" ht="21" spans="1:3">
       <c r="A179" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B179" s="9" t="s">
-        <v>175</v>
+        <v>179</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>182</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>5</v>
@@ -4311,10 +4386,10 @@
     </row>
     <row r="180" ht="21" spans="1:3">
       <c r="A180" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>176</v>
+        <v>179</v>
+      </c>
+      <c r="B180" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>5</v>
@@ -4322,10 +4397,10 @@
     </row>
     <row r="181" ht="21" spans="1:3">
       <c r="A181" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>5</v>
@@ -4333,10 +4408,10 @@
     </row>
     <row r="182" ht="21" spans="1:3">
       <c r="A182" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>185</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>5</v>
@@ -4344,10 +4419,10 @@
     </row>
     <row r="183" ht="21" spans="1:3">
       <c r="A183" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B183" s="9" t="s">
         <v>179</v>
+      </c>
+      <c r="B183" s="12" t="s">
+        <v>186</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>5</v>
@@ -4355,10 +4430,10 @@
     </row>
     <row r="184" ht="21" spans="1:3">
       <c r="A184" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B184" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>5</v>
@@ -4366,10 +4441,10 @@
     </row>
     <row r="185" ht="21" spans="1:3">
       <c r="A185" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B185" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+      <c r="B185" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>5</v>
@@ -4377,10 +4452,10 @@
     </row>
     <row r="186" ht="21" spans="1:3">
       <c r="A186" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>5</v>
@@ -4388,10 +4463,10 @@
     </row>
     <row r="187" ht="21" spans="1:3">
       <c r="A187" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B187" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
+      </c>
+      <c r="B187" s="12" t="s">
+        <v>190</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>5</v>
@@ -4399,10 +4474,10 @@
     </row>
     <row r="188" ht="21" spans="1:3">
       <c r="A188" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B188" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
+      </c>
+      <c r="B188" s="12" t="s">
+        <v>191</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>5</v>
@@ -4410,10 +4485,10 @@
     </row>
     <row r="189" ht="21" spans="1:3">
       <c r="A189" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B189" s="9" t="s">
-        <v>185</v>
+        <v>179</v>
+      </c>
+      <c r="B189" s="12" t="s">
+        <v>192</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>5</v>
@@ -4421,10 +4496,10 @@
     </row>
     <row r="190" ht="21" spans="1:3">
       <c r="A190" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B190" s="9" t="s">
-        <v>186</v>
+        <v>179</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>193</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>5</v>
@@ -4432,10 +4507,10 @@
     </row>
     <row r="191" ht="21" spans="1:3">
       <c r="A191" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B191" s="9" t="s">
-        <v>187</v>
+        <v>179</v>
+      </c>
+      <c r="B191" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>5</v>
@@ -4443,10 +4518,10 @@
     </row>
     <row r="192" ht="21" spans="1:3">
       <c r="A192" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B192" s="9" t="s">
-        <v>188</v>
+        <v>179</v>
+      </c>
+      <c r="B192" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>5</v>
@@ -4454,10 +4529,10 @@
     </row>
     <row r="193" ht="21" spans="1:3">
       <c r="A193" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B193" s="9" t="s">
-        <v>189</v>
+        <v>179</v>
+      </c>
+      <c r="B193" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>5</v>
@@ -4465,10 +4540,10 @@
     </row>
     <row r="194" ht="21" spans="1:3">
       <c r="A194" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B194" s="9" t="s">
-        <v>190</v>
+        <v>179</v>
+      </c>
+      <c r="B194" s="12" t="s">
+        <v>197</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>5</v>
@@ -4476,10 +4551,10 @@
     </row>
     <row r="195" ht="21" spans="1:3">
       <c r="A195" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B195" s="9" t="s">
-        <v>191</v>
+        <v>179</v>
+      </c>
+      <c r="B195" s="12" t="s">
+        <v>198</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>5</v>
@@ -4487,10 +4562,10 @@
     </row>
     <row r="196" ht="21" spans="1:3">
       <c r="A196" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B196" s="9" t="s">
-        <v>192</v>
+        <v>179</v>
+      </c>
+      <c r="B196" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>5</v>
@@ -4498,10 +4573,10 @@
     </row>
     <row r="197" ht="21" spans="1:3">
       <c r="A197" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>193</v>
+        <v>179</v>
+      </c>
+      <c r="B197" s="12" t="s">
+        <v>200</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>5</v>
@@ -4509,10 +4584,10 @@
     </row>
     <row r="198" ht="21" spans="1:3">
       <c r="A198" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B198" s="9" t="s">
-        <v>194</v>
+        <v>179</v>
+      </c>
+      <c r="B198" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>5</v>
@@ -4520,10 +4595,10 @@
     </row>
     <row r="199" ht="21" spans="1:3">
       <c r="A199" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B199" s="9" t="s">
-        <v>195</v>
+        <v>179</v>
+      </c>
+      <c r="B199" s="12" t="s">
+        <v>202</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>5</v>
@@ -4531,10 +4606,10 @@
     </row>
     <row r="200" ht="21" spans="1:3">
       <c r="A200" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B200" s="9" t="s">
-        <v>196</v>
+        <v>179</v>
+      </c>
+      <c r="B200" s="12" t="s">
+        <v>203</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>5</v>
@@ -4542,10 +4617,10 @@
     </row>
     <row r="201" ht="21" spans="1:3">
       <c r="A201" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B201" s="9" t="s">
-        <v>197</v>
+        <v>179</v>
+      </c>
+      <c r="B201" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>5</v>
@@ -4553,10 +4628,10 @@
     </row>
     <row r="202" ht="21" spans="1:3">
       <c r="A202" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B202" s="9" t="s">
-        <v>198</v>
+        <v>179</v>
+      </c>
+      <c r="B202" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>5</v>
@@ -4564,10 +4639,10 @@
     </row>
     <row r="203" ht="21" spans="1:3">
       <c r="A203" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B203" s="9" t="s">
-        <v>199</v>
+        <v>179</v>
+      </c>
+      <c r="B203" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>5</v>
@@ -4575,10 +4650,10 @@
     </row>
     <row r="204" ht="21" spans="1:3">
       <c r="A204" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B204" s="9" t="s">
-        <v>200</v>
+        <v>179</v>
+      </c>
+      <c r="B204" s="12" t="s">
+        <v>207</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>5</v>
@@ -4586,10 +4661,10 @@
     </row>
     <row r="205" ht="21" spans="1:3">
       <c r="A205" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B205" s="9" t="s">
-        <v>201</v>
+        <v>179</v>
+      </c>
+      <c r="B205" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>5</v>
@@ -4597,10 +4672,10 @@
     </row>
     <row r="206" ht="21" spans="1:3">
       <c r="A206" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B206" s="9" t="s">
-        <v>202</v>
+        <v>179</v>
+      </c>
+      <c r="B206" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>5</v>
@@ -4608,10 +4683,10 @@
     </row>
     <row r="207" ht="21" spans="1:3">
       <c r="A207" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B207" s="9" t="s">
-        <v>203</v>
+        <v>179</v>
+      </c>
+      <c r="B207" s="12" t="s">
+        <v>210</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>5</v>
@@ -4619,10 +4694,10 @@
     </row>
     <row r="208" ht="21" spans="1:3">
       <c r="A208" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B208" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
+      </c>
+      <c r="B208" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>5</v>
@@ -4630,10 +4705,10 @@
     </row>
     <row r="209" ht="21" spans="1:3">
       <c r="A209" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B209" s="9" t="s">
-        <v>205</v>
+        <v>179</v>
+      </c>
+      <c r="B209" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>5</v>
@@ -4641,10 +4716,10 @@
     </row>
     <row r="210" ht="21" spans="1:3">
       <c r="A210" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B210" s="9" t="s">
-        <v>206</v>
+        <v>179</v>
+      </c>
+      <c r="B210" s="12" t="s">
+        <v>213</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>5</v>
@@ -4652,31 +4727,31 @@
     </row>
     <row r="211" ht="21" spans="1:3">
       <c r="A211" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B211" s="9" t="s">
-        <v>207</v>
+        <v>179</v>
+      </c>
+      <c r="B211" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="212" ht="21" spans="1:3">
-      <c r="A212" s="11"/>
-      <c r="B212" s="10"/>
+      <c r="A212" s="14"/>
+      <c r="B212" s="13"/>
       <c r="C212" s="5"/>
     </row>
     <row r="213" ht="21" spans="1:3">
-      <c r="A213" s="11"/>
-      <c r="B213" s="10"/>
+      <c r="A213" s="14"/>
+      <c r="B213" s="13"/>
       <c r="C213" s="5"/>
     </row>
     <row r="214" ht="21" spans="1:3">
       <c r="A214" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B214" s="9" t="s">
-        <v>209</v>
+        <v>215</v>
+      </c>
+      <c r="B214" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>5</v>
@@ -4684,10 +4759,10 @@
     </row>
     <row r="215" ht="21" spans="1:3">
       <c r="A215" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B215" s="9" t="s">
-        <v>210</v>
+        <v>215</v>
+      </c>
+      <c r="B215" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>5</v>
@@ -4695,10 +4770,10 @@
     </row>
     <row r="216" ht="21" spans="1:3">
       <c r="A216" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B216" s="9" t="s">
-        <v>211</v>
+        <v>215</v>
+      </c>
+      <c r="B216" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>5</v>
@@ -4706,10 +4781,10 @@
     </row>
     <row r="217" ht="21" spans="1:3">
       <c r="A217" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B217" s="9" t="s">
-        <v>212</v>
+        <v>215</v>
+      </c>
+      <c r="B217" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>5</v>
@@ -4717,10 +4792,10 @@
     </row>
     <row r="218" ht="21" spans="1:3">
       <c r="A218" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B218" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
+      </c>
+      <c r="B218" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>5</v>
@@ -4728,10 +4803,10 @@
     </row>
     <row r="219" ht="21" spans="1:3">
       <c r="A219" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B219" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="B219" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>5</v>
@@ -4739,10 +4814,10 @@
     </row>
     <row r="220" ht="21" spans="1:3">
       <c r="A220" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B220" s="12" t="s">
         <v>215</v>
+      </c>
+      <c r="B220" s="15" t="s">
+        <v>222</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>5</v>
@@ -4750,10 +4825,10 @@
     </row>
     <row r="221" ht="21" spans="1:3">
       <c r="A221" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B221" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
+      </c>
+      <c r="B221" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>5</v>
@@ -4761,10 +4836,10 @@
     </row>
     <row r="222" ht="21" spans="1:3">
       <c r="A222" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B222" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
+      </c>
+      <c r="B222" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>5</v>
@@ -4772,10 +4847,10 @@
     </row>
     <row r="223" ht="21" spans="1:3">
       <c r="A223" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B223" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
+      </c>
+      <c r="B223" s="12" t="s">
+        <v>225</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>5</v>
@@ -4783,10 +4858,10 @@
     </row>
     <row r="224" ht="21" spans="1:3">
       <c r="A224" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B224" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
+      </c>
+      <c r="B224" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>5</v>
@@ -4794,10 +4869,10 @@
     </row>
     <row r="225" ht="21" spans="1:3">
       <c r="A225" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B225" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
+      </c>
+      <c r="B225" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>5</v>
@@ -4805,10 +4880,10 @@
     </row>
     <row r="226" ht="21" spans="1:3">
       <c r="A226" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B226" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
+      </c>
+      <c r="B226" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>5</v>
@@ -4816,10 +4891,10 @@
     </row>
     <row r="227" ht="21" spans="1:3">
       <c r="A227" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B227" s="9" t="s">
-        <v>222</v>
+        <v>215</v>
+      </c>
+      <c r="B227" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>5</v>
@@ -4827,10 +4902,10 @@
     </row>
     <row r="228" ht="21" spans="1:3">
       <c r="A228" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B228" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
+      </c>
+      <c r="B228" s="12" t="s">
+        <v>230</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>5</v>
@@ -4838,10 +4913,10 @@
     </row>
     <row r="229" ht="21" spans="1:3">
       <c r="A229" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B229" s="9" t="s">
-        <v>224</v>
+        <v>215</v>
+      </c>
+      <c r="B229" s="12" t="s">
+        <v>231</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>5</v>
@@ -4849,10 +4924,10 @@
     </row>
     <row r="230" ht="21" spans="1:3">
       <c r="A230" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B230" s="9" t="s">
-        <v>225</v>
+        <v>215</v>
+      </c>
+      <c r="B230" s="12" t="s">
+        <v>232</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>5</v>
@@ -4860,10 +4935,10 @@
     </row>
     <row r="231" ht="21" spans="1:3">
       <c r="A231" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B231" s="9" t="s">
-        <v>226</v>
+        <v>215</v>
+      </c>
+      <c r="B231" s="12" t="s">
+        <v>233</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>5</v>
@@ -4871,10 +4946,10 @@
     </row>
     <row r="232" ht="21" spans="1:3">
       <c r="A232" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B232" s="9" t="s">
-        <v>227</v>
+        <v>215</v>
+      </c>
+      <c r="B232" s="12" t="s">
+        <v>234</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>5</v>
@@ -4882,10 +4957,10 @@
     </row>
     <row r="233" ht="21" spans="1:3">
       <c r="A233" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B233" s="9" t="s">
-        <v>228</v>
+        <v>215</v>
+      </c>
+      <c r="B233" s="12" t="s">
+        <v>235</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>5</v>
@@ -4893,10 +4968,10 @@
     </row>
     <row r="234" ht="21" spans="1:3">
       <c r="A234" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B234" s="9" t="s">
-        <v>229</v>
+        <v>215</v>
+      </c>
+      <c r="B234" s="12" t="s">
+        <v>236</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>5</v>
@@ -4904,29 +4979,29 @@
     </row>
     <row r="235" ht="21" spans="1:3">
       <c r="A235" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B235" s="9" t="s">
-        <v>230</v>
+        <v>215</v>
+      </c>
+      <c r="B235" s="12" t="s">
+        <v>237</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="236" ht="21" spans="2:3">
-      <c r="B236" s="10"/>
+      <c r="B236" s="13"/>
       <c r="C236" s="5"/>
     </row>
     <row r="237" ht="21" spans="2:3">
-      <c r="B237" s="10"/>
+      <c r="B237" s="13"/>
       <c r="C237" s="5"/>
     </row>
     <row r="238" ht="21" spans="1:3">
       <c r="A238" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B238" s="9" t="s">
-        <v>232</v>
+        <v>238</v>
+      </c>
+      <c r="B238" s="12" t="s">
+        <v>239</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>5</v>
@@ -4934,10 +5009,10 @@
     </row>
     <row r="239" ht="21" spans="1:3">
       <c r="A239" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B239" s="9" t="s">
-        <v>233</v>
+        <v>238</v>
+      </c>
+      <c r="B239" s="12" t="s">
+        <v>240</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>5</v>
@@ -4945,10 +5020,10 @@
     </row>
     <row r="240" ht="21" spans="1:3">
       <c r="A240" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B240" s="9" t="s">
-        <v>234</v>
+        <v>238</v>
+      </c>
+      <c r="B240" s="12" t="s">
+        <v>241</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>5</v>
@@ -4956,10 +5031,10 @@
     </row>
     <row r="241" ht="21" spans="1:3">
       <c r="A241" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B241" s="9" t="s">
-        <v>235</v>
+        <v>238</v>
+      </c>
+      <c r="B241" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>5</v>
@@ -4967,10 +5042,10 @@
     </row>
     <row r="242" ht="21" spans="1:3">
       <c r="A242" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B242" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
+      </c>
+      <c r="B242" s="12" t="s">
+        <v>243</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>5</v>
@@ -4978,10 +5053,10 @@
     </row>
     <row r="243" ht="21" spans="1:3">
       <c r="A243" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B243" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
+      </c>
+      <c r="B243" s="12" t="s">
+        <v>244</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>5</v>
@@ -4989,10 +5064,10 @@
     </row>
     <row r="244" ht="21" spans="1:3">
       <c r="A244" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B244" s="9" t="s">
         <v>238</v>
+      </c>
+      <c r="B244" s="12" t="s">
+        <v>245</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>5</v>
@@ -5000,10 +5075,10 @@
     </row>
     <row r="245" ht="21" spans="1:3">
       <c r="A245" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B245" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
+      </c>
+      <c r="B245" s="12" t="s">
+        <v>246</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>5</v>
@@ -5011,10 +5086,10 @@
     </row>
     <row r="246" ht="21" spans="1:3">
       <c r="A246" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B246" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
+      </c>
+      <c r="B246" s="12" t="s">
+        <v>247</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>5</v>
@@ -5022,10 +5097,10 @@
     </row>
     <row r="247" ht="21" spans="1:3">
       <c r="A247" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B247" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
+      </c>
+      <c r="B247" s="12" t="s">
+        <v>248</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>5</v>
@@ -5033,10 +5108,10 @@
     </row>
     <row r="248" ht="21" spans="1:3">
       <c r="A248" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B248" s="9" t="s">
-        <v>242</v>
+        <v>238</v>
+      </c>
+      <c r="B248" s="12" t="s">
+        <v>249</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>5</v>
@@ -5044,10 +5119,10 @@
     </row>
     <row r="249" ht="21" spans="1:3">
       <c r="A249" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B249" s="9" t="s">
-        <v>243</v>
+        <v>238</v>
+      </c>
+      <c r="B249" s="12" t="s">
+        <v>250</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>5</v>
@@ -5055,10 +5130,10 @@
     </row>
     <row r="250" ht="21" spans="1:3">
       <c r="A250" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B250" s="9" t="s">
-        <v>244</v>
+        <v>238</v>
+      </c>
+      <c r="B250" s="12" t="s">
+        <v>251</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>5</v>
@@ -5066,10 +5141,10 @@
     </row>
     <row r="251" ht="21" spans="1:3">
       <c r="A251" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B251" s="9" t="s">
-        <v>245</v>
+        <v>238</v>
+      </c>
+      <c r="B251" s="12" t="s">
+        <v>252</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>5</v>
@@ -5077,10 +5152,10 @@
     </row>
     <row r="252" ht="21" spans="1:3">
       <c r="A252" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B252" s="9" t="s">
-        <v>246</v>
+        <v>238</v>
+      </c>
+      <c r="B252" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>5</v>
@@ -5088,10 +5163,10 @@
     </row>
     <row r="253" ht="21" spans="1:3">
       <c r="A253" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B253" s="9" t="s">
-        <v>247</v>
+        <v>238</v>
+      </c>
+      <c r="B253" s="12" t="s">
+        <v>254</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>5</v>
@@ -5099,10 +5174,10 @@
     </row>
     <row r="254" ht="21" spans="1:3">
       <c r="A254" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B254" s="9" t="s">
-        <v>248</v>
+        <v>238</v>
+      </c>
+      <c r="B254" s="12" t="s">
+        <v>255</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>5</v>
@@ -5110,10 +5185,10 @@
     </row>
     <row r="255" ht="21" spans="1:3">
       <c r="A255" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B255" s="9" t="s">
-        <v>249</v>
+        <v>238</v>
+      </c>
+      <c r="B255" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>5</v>
@@ -5121,10 +5196,10 @@
     </row>
     <row r="256" ht="21" spans="1:3">
       <c r="A256" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B256" s="9" t="s">
-        <v>250</v>
+        <v>238</v>
+      </c>
+      <c r="B256" s="12" t="s">
+        <v>257</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>5</v>
@@ -5132,10 +5207,10 @@
     </row>
     <row r="257" ht="21" spans="1:3">
       <c r="A257" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B257" s="9" t="s">
-        <v>251</v>
+        <v>238</v>
+      </c>
+      <c r="B257" s="12" t="s">
+        <v>258</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>5</v>
@@ -5143,10 +5218,10 @@
     </row>
     <row r="258" ht="21" spans="1:3">
       <c r="A258" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B258" s="9" t="s">
-        <v>252</v>
+        <v>238</v>
+      </c>
+      <c r="B258" s="12" t="s">
+        <v>259</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>5</v>
@@ -5154,10 +5229,10 @@
     </row>
     <row r="259" ht="21" spans="1:3">
       <c r="A259" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B259" s="9" t="s">
-        <v>253</v>
+        <v>238</v>
+      </c>
+      <c r="B259" s="12" t="s">
+        <v>260</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>5</v>
@@ -5165,10 +5240,10 @@
     </row>
     <row r="260" ht="21" spans="1:3">
       <c r="A260" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B260" s="9" t="s">
-        <v>254</v>
+        <v>238</v>
+      </c>
+      <c r="B260" s="12" t="s">
+        <v>261</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>5</v>
@@ -5176,10 +5251,10 @@
     </row>
     <row r="261" ht="21" spans="1:3">
       <c r="A261" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B261" s="9" t="s">
-        <v>255</v>
+        <v>238</v>
+      </c>
+      <c r="B261" s="12" t="s">
+        <v>262</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>5</v>
@@ -5187,10 +5262,10 @@
     </row>
     <row r="262" ht="21" spans="1:3">
       <c r="A262" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B262" s="9" t="s">
-        <v>256</v>
+        <v>238</v>
+      </c>
+      <c r="B262" s="12" t="s">
+        <v>263</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>5</v>
@@ -5198,10 +5273,10 @@
     </row>
     <row r="263" ht="21" spans="1:3">
       <c r="A263" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B263" s="9" t="s">
-        <v>257</v>
+        <v>238</v>
+      </c>
+      <c r="B263" s="12" t="s">
+        <v>264</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>5</v>
@@ -5209,10 +5284,10 @@
     </row>
     <row r="264" ht="21" spans="1:3">
       <c r="A264" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B264" s="9" t="s">
-        <v>258</v>
+        <v>238</v>
+      </c>
+      <c r="B264" s="12" t="s">
+        <v>265</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>5</v>
@@ -5220,10 +5295,10 @@
     </row>
     <row r="265" ht="21" spans="1:3">
       <c r="A265" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B265" s="9" t="s">
-        <v>259</v>
+        <v>238</v>
+      </c>
+      <c r="B265" s="12" t="s">
+        <v>266</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>5</v>
@@ -5231,10 +5306,10 @@
     </row>
     <row r="266" ht="21" spans="1:3">
       <c r="A266" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B266" s="9" t="s">
-        <v>260</v>
+        <v>238</v>
+      </c>
+      <c r="B266" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>5</v>
@@ -5242,10 +5317,10 @@
     </row>
     <row r="267" ht="21" spans="1:3">
       <c r="A267" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B267" s="9" t="s">
-        <v>261</v>
+        <v>238</v>
+      </c>
+      <c r="B267" s="12" t="s">
+        <v>268</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>5</v>
@@ -5253,10 +5328,10 @@
     </row>
     <row r="268" ht="21" spans="1:3">
       <c r="A268" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B268" s="9" t="s">
-        <v>262</v>
+        <v>238</v>
+      </c>
+      <c r="B268" s="12" t="s">
+        <v>269</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>5</v>
@@ -5264,10 +5339,10 @@
     </row>
     <row r="269" ht="21" spans="1:3">
       <c r="A269" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B269" s="9" t="s">
-        <v>263</v>
+        <v>238</v>
+      </c>
+      <c r="B269" s="12" t="s">
+        <v>270</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>5</v>
@@ -5275,10 +5350,10 @@
     </row>
     <row r="270" ht="21" spans="1:3">
       <c r="A270" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B270" s="9" t="s">
-        <v>264</v>
+        <v>238</v>
+      </c>
+      <c r="B270" s="12" t="s">
+        <v>271</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>5</v>
@@ -5286,10 +5361,10 @@
     </row>
     <row r="271" ht="21" spans="1:3">
       <c r="A271" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B271" s="9" t="s">
-        <v>88</v>
+        <v>238</v>
+      </c>
+      <c r="B271" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>5</v>
@@ -5297,29 +5372,29 @@
     </row>
     <row r="272" ht="21" spans="1:3">
       <c r="A272" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B272" s="9" t="s">
-        <v>265</v>
+        <v>238</v>
+      </c>
+      <c r="B272" s="12" t="s">
+        <v>272</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="273" ht="21" spans="2:3">
-      <c r="B273" s="10"/>
+      <c r="B273" s="13"/>
       <c r="C273" s="5"/>
     </row>
     <row r="274" ht="21" spans="2:3">
-      <c r="B274" s="10"/>
+      <c r="B274" s="13"/>
       <c r="C274" s="5"/>
     </row>
     <row r="275" ht="21" spans="1:3">
       <c r="A275" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B275" s="9" t="s">
-        <v>267</v>
+        <v>273</v>
+      </c>
+      <c r="B275" s="12" t="s">
+        <v>274</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>5</v>
@@ -5327,10 +5402,10 @@
     </row>
     <row r="276" ht="21" spans="1:3">
       <c r="A276" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B276" s="9" t="s">
-        <v>268</v>
+        <v>273</v>
+      </c>
+      <c r="B276" s="12" t="s">
+        <v>275</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>5</v>
@@ -5338,10 +5413,10 @@
     </row>
     <row r="277" ht="21" spans="1:3">
       <c r="A277" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B277" s="9" t="s">
-        <v>269</v>
+        <v>273</v>
+      </c>
+      <c r="B277" s="12" t="s">
+        <v>276</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>5</v>
@@ -5349,10 +5424,10 @@
     </row>
     <row r="278" ht="21" spans="1:3">
       <c r="A278" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B278" s="9" t="s">
-        <v>270</v>
+        <v>273</v>
+      </c>
+      <c r="B278" s="12" t="s">
+        <v>277</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>5</v>
@@ -5360,10 +5435,10 @@
     </row>
     <row r="279" ht="21" spans="1:3">
       <c r="A279" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B279" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
+      </c>
+      <c r="B279" s="12" t="s">
+        <v>278</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>5</v>
@@ -5371,10 +5446,10 @@
     </row>
     <row r="280" ht="21" spans="1:3">
       <c r="A280" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B280" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="B280" s="12" t="s">
+        <v>279</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>5</v>
@@ -5382,10 +5457,10 @@
     </row>
     <row r="281" ht="21" spans="1:3">
       <c r="A281" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B281" s="9" t="s">
         <v>273</v>
+      </c>
+      <c r="B281" s="12" t="s">
+        <v>280</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>5</v>
@@ -5393,10 +5468,10 @@
     </row>
     <row r="282" ht="21" spans="1:3">
       <c r="A282" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B282" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
+      </c>
+      <c r="B282" s="12" t="s">
+        <v>281</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>5</v>
@@ -5404,10 +5479,10 @@
     </row>
     <row r="283" ht="21" spans="1:3">
       <c r="A283" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B283" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
+      </c>
+      <c r="B283" s="12" t="s">
+        <v>282</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>5</v>
@@ -5415,10 +5490,10 @@
     </row>
     <row r="284" ht="21" spans="1:3">
       <c r="A284" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B284" s="9" t="s">
-        <v>276</v>
+        <v>273</v>
+      </c>
+      <c r="B284" s="12" t="s">
+        <v>283</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>5</v>
@@ -5426,10 +5501,10 @@
     </row>
     <row r="285" ht="21" spans="1:3">
       <c r="A285" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B285" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
+      </c>
+      <c r="B285" s="12" t="s">
+        <v>284</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>5</v>
@@ -5437,10 +5512,10 @@
     </row>
     <row r="286" ht="21" spans="1:3">
       <c r="A286" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B286" s="9" t="s">
-        <v>278</v>
+        <v>273</v>
+      </c>
+      <c r="B286" s="12" t="s">
+        <v>285</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>5</v>
@@ -5448,10 +5523,10 @@
     </row>
     <row r="287" ht="21" spans="1:3">
       <c r="A287" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B287" s="9" t="s">
-        <v>279</v>
+        <v>273</v>
+      </c>
+      <c r="B287" s="12" t="s">
+        <v>286</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>5</v>
@@ -5459,10 +5534,10 @@
     </row>
     <row r="288" ht="21" spans="1:3">
       <c r="A288" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B288" s="9" t="s">
-        <v>280</v>
+        <v>273</v>
+      </c>
+      <c r="B288" s="12" t="s">
+        <v>287</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>5</v>
@@ -5470,10 +5545,10 @@
     </row>
     <row r="289" ht="21" spans="1:3">
       <c r="A289" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B289" s="9" t="s">
-        <v>281</v>
+        <v>273</v>
+      </c>
+      <c r="B289" s="12" t="s">
+        <v>288</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>5</v>
@@ -5481,10 +5556,10 @@
     </row>
     <row r="290" ht="21" spans="1:3">
       <c r="A290" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B290" s="9" t="s">
-        <v>282</v>
+        <v>273</v>
+      </c>
+      <c r="B290" s="12" t="s">
+        <v>289</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>5</v>
@@ -5492,10 +5567,10 @@
     </row>
     <row r="291" ht="21" spans="1:3">
       <c r="A291" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B291" s="9" t="s">
-        <v>283</v>
+        <v>273</v>
+      </c>
+      <c r="B291" s="12" t="s">
+        <v>290</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>5</v>
@@ -5503,10 +5578,10 @@
     </row>
     <row r="292" ht="21" spans="1:3">
       <c r="A292" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B292" s="9" t="s">
-        <v>284</v>
+        <v>273</v>
+      </c>
+      <c r="B292" s="12" t="s">
+        <v>291</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>5</v>
@@ -5514,29 +5589,29 @@
     </row>
     <row r="293" ht="21" spans="1:3">
       <c r="A293" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B293" s="9" t="s">
-        <v>285</v>
+        <v>273</v>
+      </c>
+      <c r="B293" s="12" t="s">
+        <v>292</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="294" ht="21" spans="2:3">
-      <c r="B294" s="10"/>
+      <c r="B294" s="13"/>
       <c r="C294" s="5"/>
     </row>
     <row r="295" ht="21" spans="2:3">
-      <c r="B295" s="10"/>
+      <c r="B295" s="13"/>
       <c r="C295" s="5"/>
     </row>
     <row r="296" ht="21" spans="1:3">
       <c r="A296" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B296" s="9" t="s">
-        <v>287</v>
+        <v>293</v>
+      </c>
+      <c r="B296" s="12" t="s">
+        <v>294</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>5</v>
@@ -5544,10 +5619,10 @@
     </row>
     <row r="297" ht="21" spans="1:3">
       <c r="A297" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B297" s="9" t="s">
-        <v>288</v>
+        <v>293</v>
+      </c>
+      <c r="B297" s="12" t="s">
+        <v>295</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>5</v>
@@ -5555,10 +5630,10 @@
     </row>
     <row r="298" ht="21" spans="1:3">
       <c r="A298" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B298" s="9" t="s">
-        <v>289</v>
+        <v>293</v>
+      </c>
+      <c r="B298" s="12" t="s">
+        <v>296</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>5</v>
@@ -5566,10 +5641,10 @@
     </row>
     <row r="299" ht="21" spans="1:3">
       <c r="A299" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B299" s="9" t="s">
-        <v>290</v>
+        <v>293</v>
+      </c>
+      <c r="B299" s="12" t="s">
+        <v>297</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>5</v>
@@ -5577,10 +5652,10 @@
     </row>
     <row r="300" ht="21" spans="1:3">
       <c r="A300" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B300" s="9" t="s">
-        <v>291</v>
+        <v>293</v>
+      </c>
+      <c r="B300" s="12" t="s">
+        <v>298</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>5</v>
@@ -5588,10 +5663,10 @@
     </row>
     <row r="301" ht="21" spans="1:3">
       <c r="A301" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B301" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
+      </c>
+      <c r="B301" s="12" t="s">
+        <v>299</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>5</v>
@@ -5599,10 +5674,10 @@
     </row>
     <row r="302" ht="21" spans="1:3">
       <c r="A302" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B302" s="9" t="s">
         <v>293</v>
+      </c>
+      <c r="B302" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>5</v>
@@ -5610,10 +5685,10 @@
     </row>
     <row r="303" ht="21" spans="1:3">
       <c r="A303" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B303" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
+      </c>
+      <c r="B303" s="12" t="s">
+        <v>301</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>5</v>
@@ -5621,10 +5696,10 @@
     </row>
     <row r="304" ht="21" spans="1:3">
       <c r="A304" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B304" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
+      </c>
+      <c r="B304" s="12" t="s">
+        <v>302</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>5</v>
@@ -5632,10 +5707,10 @@
     </row>
     <row r="305" ht="21" spans="1:3">
       <c r="A305" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B305" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
+      </c>
+      <c r="B305" s="12" t="s">
+        <v>303</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>5</v>
@@ -5643,10 +5718,10 @@
     </row>
     <row r="306" ht="21" spans="1:3">
       <c r="A306" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B306" s="9" t="s">
-        <v>297</v>
+        <v>293</v>
+      </c>
+      <c r="B306" s="12" t="s">
+        <v>304</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>5</v>
@@ -5654,10 +5729,10 @@
     </row>
     <row r="307" ht="21" spans="1:3">
       <c r="A307" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B307" s="9" t="s">
-        <v>298</v>
+        <v>293</v>
+      </c>
+      <c r="B307" s="12" t="s">
+        <v>305</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>5</v>
@@ -5665,10 +5740,10 @@
     </row>
     <row r="308" ht="21" spans="1:3">
       <c r="A308" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B308" s="9" t="s">
-        <v>299</v>
+        <v>293</v>
+      </c>
+      <c r="B308" s="12" t="s">
+        <v>306</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>5</v>
@@ -5676,10 +5751,10 @@
     </row>
     <row r="309" ht="21" spans="1:3">
       <c r="A309" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B309" s="12" t="s">
-        <v>300</v>
+        <v>293</v>
+      </c>
+      <c r="B309" s="15" t="s">
+        <v>307</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>5</v>
@@ -5687,10 +5762,10 @@
     </row>
     <row r="310" ht="21" spans="1:3">
       <c r="A310" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B310" s="9" t="s">
-        <v>301</v>
+        <v>293</v>
+      </c>
+      <c r="B310" s="12" t="s">
+        <v>308</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>5</v>
@@ -5698,10 +5773,10 @@
     </row>
     <row r="311" ht="21" spans="1:3">
       <c r="A311" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B311" s="9" t="s">
-        <v>302</v>
+        <v>293</v>
+      </c>
+      <c r="B311" s="12" t="s">
+        <v>309</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>5</v>
@@ -5709,10 +5784,10 @@
     </row>
     <row r="312" ht="21" spans="1:3">
       <c r="A312" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B312" s="9" t="s">
-        <v>303</v>
+        <v>293</v>
+      </c>
+      <c r="B312" s="12" t="s">
+        <v>310</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>5</v>
@@ -5720,10 +5795,10 @@
     </row>
     <row r="313" ht="21" spans="1:3">
       <c r="A313" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B313" s="9" t="s">
-        <v>304</v>
+        <v>293</v>
+      </c>
+      <c r="B313" s="12" t="s">
+        <v>311</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>5</v>
@@ -5731,10 +5806,10 @@
     </row>
     <row r="314" ht="21" spans="1:3">
       <c r="A314" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B314" s="9" t="s">
-        <v>305</v>
+        <v>293</v>
+      </c>
+      <c r="B314" s="12" t="s">
+        <v>312</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>5</v>
@@ -5742,10 +5817,10 @@
     </row>
     <row r="315" ht="21" spans="1:3">
       <c r="A315" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B315" s="9" t="s">
-        <v>306</v>
+        <v>293</v>
+      </c>
+      <c r="B315" s="12" t="s">
+        <v>313</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>5</v>
@@ -5753,10 +5828,10 @@
     </row>
     <row r="316" ht="21" spans="1:3">
       <c r="A316" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B316" s="9" t="s">
-        <v>307</v>
+        <v>293</v>
+      </c>
+      <c r="B316" s="12" t="s">
+        <v>314</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>5</v>
@@ -5764,10 +5839,10 @@
     </row>
     <row r="317" ht="21" spans="1:3">
       <c r="A317" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B317" s="9" t="s">
-        <v>308</v>
+        <v>293</v>
+      </c>
+      <c r="B317" s="12" t="s">
+        <v>315</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>5</v>
@@ -5775,10 +5850,10 @@
     </row>
     <row r="318" ht="21" spans="1:3">
       <c r="A318" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B318" s="9" t="s">
-        <v>309</v>
+        <v>293</v>
+      </c>
+      <c r="B318" s="12" t="s">
+        <v>316</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>5</v>
@@ -5786,10 +5861,10 @@
     </row>
     <row r="319" ht="21" spans="1:3">
       <c r="A319" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B319" s="9" t="s">
-        <v>310</v>
+        <v>293</v>
+      </c>
+      <c r="B319" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>5</v>
@@ -5797,10 +5872,10 @@
     </row>
     <row r="320" ht="21" spans="1:3">
       <c r="A320" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B320" s="9" t="s">
-        <v>311</v>
+        <v>293</v>
+      </c>
+      <c r="B320" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>5</v>
@@ -5808,10 +5883,10 @@
     </row>
     <row r="321" ht="21" spans="1:3">
       <c r="A321" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B321" s="9" t="s">
-        <v>312</v>
+        <v>293</v>
+      </c>
+      <c r="B321" s="12" t="s">
+        <v>319</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>5</v>
@@ -5819,10 +5894,10 @@
     </row>
     <row r="322" ht="21" spans="1:3">
       <c r="A322" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B322" s="9" t="s">
-        <v>313</v>
+        <v>293</v>
+      </c>
+      <c r="B322" s="12" t="s">
+        <v>320</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>5</v>
@@ -5830,10 +5905,10 @@
     </row>
     <row r="323" ht="21" spans="1:3">
       <c r="A323" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B323" s="9" t="s">
-        <v>314</v>
+        <v>293</v>
+      </c>
+      <c r="B323" s="12" t="s">
+        <v>321</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>5</v>
@@ -5841,10 +5916,10 @@
     </row>
     <row r="324" ht="21" spans="1:3">
       <c r="A324" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B324" s="9" t="s">
-        <v>315</v>
+        <v>293</v>
+      </c>
+      <c r="B324" s="12" t="s">
+        <v>322</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>5</v>
@@ -5852,10 +5927,10 @@
     </row>
     <row r="325" ht="21" spans="1:3">
       <c r="A325" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B325" s="9" t="s">
-        <v>316</v>
+        <v>293</v>
+      </c>
+      <c r="B325" s="12" t="s">
+        <v>323</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>5</v>
@@ -5863,10 +5938,10 @@
     </row>
     <row r="326" ht="21" spans="1:3">
       <c r="A326" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B326" s="9" t="s">
-        <v>317</v>
+        <v>293</v>
+      </c>
+      <c r="B326" s="12" t="s">
+        <v>324</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>5</v>
@@ -5874,10 +5949,10 @@
     </row>
     <row r="327" ht="21" spans="1:3">
       <c r="A327" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B327" s="9" t="s">
-        <v>318</v>
+        <v>293</v>
+      </c>
+      <c r="B327" s="12" t="s">
+        <v>325</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>5</v>
@@ -5885,10 +5960,10 @@
     </row>
     <row r="328" ht="21" spans="1:3">
       <c r="A328" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B328" s="9" t="s">
-        <v>319</v>
+        <v>293</v>
+      </c>
+      <c r="B328" s="12" t="s">
+        <v>326</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>5</v>
@@ -5896,10 +5971,10 @@
     </row>
     <row r="329" ht="21" spans="1:3">
       <c r="A329" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B329" s="9" t="s">
-        <v>320</v>
+        <v>293</v>
+      </c>
+      <c r="B329" s="12" t="s">
+        <v>327</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>5</v>
@@ -5907,10 +5982,10 @@
     </row>
     <row r="330" ht="21" spans="1:3">
       <c r="A330" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B330" s="9" t="s">
-        <v>321</v>
+        <v>293</v>
+      </c>
+      <c r="B330" s="12" t="s">
+        <v>328</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>5</v>
@@ -5918,10 +5993,10 @@
     </row>
     <row r="331" ht="21" spans="1:3">
       <c r="A331" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B331" s="9" t="s">
-        <v>322</v>
+        <v>293</v>
+      </c>
+      <c r="B331" s="12" t="s">
+        <v>329</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>5</v>
@@ -5929,10 +6004,10 @@
     </row>
     <row r="332" ht="21" spans="1:3">
       <c r="A332" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B332" s="9" t="s">
-        <v>323</v>
+        <v>293</v>
+      </c>
+      <c r="B332" s="12" t="s">
+        <v>330</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>5</v>
@@ -5940,801 +6015,801 @@
     </row>
     <row r="333" ht="21" spans="1:3">
       <c r="A333" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B333" s="9" t="s">
-        <v>324</v>
+        <v>293</v>
+      </c>
+      <c r="B333" s="12" t="s">
+        <v>331</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="334" ht="21" spans="2:3">
-      <c r="B334" s="10"/>
+      <c r="B334" s="13"/>
       <c r="C334" s="5"/>
     </row>
     <row r="335" ht="21" spans="2:3">
-      <c r="B335" s="10"/>
+      <c r="B335" s="13"/>
       <c r="C335" s="5"/>
     </row>
     <row r="336" ht="21" spans="1:3">
-      <c r="A336" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="B336" s="9" t="s">
-        <v>326</v>
+      <c r="A336" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B336" s="12" t="s">
+        <v>333</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="337" ht="21" spans="1:3">
-      <c r="A337" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="B337" s="9" t="s">
-        <v>327</v>
+      <c r="A337" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B337" s="12" t="s">
+        <v>334</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="338" ht="21" spans="1:3">
-      <c r="A338" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="B338" s="9" t="s">
-        <v>328</v>
+      <c r="A338" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B338" s="12" t="s">
+        <v>335</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="339" ht="21" spans="1:3">
-      <c r="A339" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="B339" s="9" t="s">
-        <v>329</v>
+      <c r="A339" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B339" s="12" t="s">
+        <v>336</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="340" ht="21" spans="1:3">
-      <c r="A340" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="B340" s="9" t="s">
-        <v>330</v>
+      <c r="A340" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B340" s="12" t="s">
+        <v>337</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="341" ht="21" spans="1:3">
-      <c r="A341" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="B341" s="9" t="s">
-        <v>331</v>
+      <c r="A341" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B341" s="12" t="s">
+        <v>338</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="342" ht="21" spans="1:3">
-      <c r="A342" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="B342" s="9" t="s">
+      <c r="A342" s="14" t="s">
         <v>332</v>
       </c>
+      <c r="B342" s="12" t="s">
+        <v>339</v>
+      </c>
       <c r="C342" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="343" ht="21" spans="1:3">
-      <c r="A343" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="B343" s="9" t="s">
-        <v>333</v>
+      <c r="A343" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B343" s="12" t="s">
+        <v>340</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="344" ht="21" spans="1:3">
-      <c r="A344" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="B344" s="12" t="s">
-        <v>334</v>
+      <c r="A344" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B344" s="15" t="s">
+        <v>341</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="345" ht="21" spans="1:3">
-      <c r="A345" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="B345" s="9" t="s">
-        <v>335</v>
+      <c r="A345" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B345" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="346" ht="21" spans="1:3">
-      <c r="A346" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="B346" s="9" t="s">
-        <v>336</v>
+      <c r="A346" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B346" s="12" t="s">
+        <v>343</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="347" ht="21" spans="1:3">
-      <c r="A347" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="B347" s="9" t="s">
-        <v>337</v>
+      <c r="A347" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B347" s="12" t="s">
+        <v>344</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="348" ht="21" spans="1:3">
-      <c r="A348" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="B348" s="9" t="s">
-        <v>338</v>
+      <c r="A348" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B348" s="12" t="s">
+        <v>345</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="349" ht="21" spans="1:3">
-      <c r="A349" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="B349" s="9" t="s">
-        <v>339</v>
+      <c r="A349" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B349" s="12" t="s">
+        <v>346</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="350" ht="21" spans="1:3">
-      <c r="A350" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="B350" s="9" t="s">
-        <v>340</v>
+      <c r="A350" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B350" s="12" t="s">
+        <v>347</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="351" ht="21" spans="1:3">
-      <c r="A351" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="B351" s="9" t="s">
-        <v>341</v>
+      <c r="A351" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B351" s="12" t="s">
+        <v>348</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="352" ht="21" spans="1:3">
-      <c r="A352" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="B352" s="9" t="s">
-        <v>342</v>
+      <c r="A352" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B352" s="12" t="s">
+        <v>349</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="353" ht="21" spans="1:3">
-      <c r="A353" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="B353" s="9" t="s">
-        <v>343</v>
+      <c r="A353" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B353" s="12" t="s">
+        <v>350</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="354" ht="21" spans="2:3">
-      <c r="B354" s="10"/>
+      <c r="B354" s="13"/>
       <c r="C354" s="5"/>
     </row>
     <row r="355" ht="21" spans="2:3">
-      <c r="B355" s="10"/>
+      <c r="B355" s="13"/>
       <c r="C355" s="5"/>
     </row>
     <row r="356" ht="21" spans="1:3">
-      <c r="A356" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B356" s="9" t="s">
-        <v>345</v>
+      <c r="A356" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B356" s="12" t="s">
+        <v>352</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="357" ht="21" spans="1:3">
-      <c r="A357" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B357" s="9" t="s">
-        <v>346</v>
+      <c r="A357" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B357" s="12" t="s">
+        <v>353</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="358" ht="21" spans="1:3">
-      <c r="A358" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B358" s="9" t="s">
-        <v>347</v>
+      <c r="A358" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B358" s="12" t="s">
+        <v>354</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="359" ht="21" spans="1:3">
-      <c r="A359" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B359" s="9" t="s">
-        <v>348</v>
+      <c r="A359" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B359" s="12" t="s">
+        <v>355</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="360" ht="21" spans="1:3">
-      <c r="A360" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B360" s="9" t="s">
-        <v>349</v>
+      <c r="A360" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B360" s="12" t="s">
+        <v>356</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="361" ht="21" spans="1:3">
-      <c r="A361" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B361" s="9" t="s">
-        <v>350</v>
+      <c r="A361" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B361" s="12" t="s">
+        <v>357</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="362" ht="21" spans="1:3">
-      <c r="A362" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B362" s="9" t="s">
+      <c r="A362" s="14" t="s">
         <v>351</v>
       </c>
+      <c r="B362" s="12" t="s">
+        <v>358</v>
+      </c>
       <c r="C362" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="363" ht="21" spans="1:3">
-      <c r="A363" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B363" s="9" t="s">
-        <v>352</v>
+      <c r="A363" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B363" s="12" t="s">
+        <v>359</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="364" ht="21" spans="1:3">
-      <c r="A364" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B364" s="9" t="s">
-        <v>353</v>
+      <c r="A364" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B364" s="12" t="s">
+        <v>360</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="365" ht="21" spans="1:3">
-      <c r="A365" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B365" s="9" t="s">
-        <v>354</v>
+      <c r="A365" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B365" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="366" ht="21" spans="1:3">
-      <c r="A366" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B366" s="9" t="s">
-        <v>355</v>
+      <c r="A366" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B366" s="12" t="s">
+        <v>362</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="367" ht="21" spans="1:3">
-      <c r="A367" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B367" s="9" t="s">
-        <v>356</v>
+      <c r="A367" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B367" s="12" t="s">
+        <v>363</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="368" ht="21" spans="1:3">
-      <c r="A368" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B368" s="9" t="s">
-        <v>357</v>
+      <c r="A368" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B368" s="12" t="s">
+        <v>364</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="369" ht="21" spans="1:3">
-      <c r="A369" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B369" s="9" t="s">
-        <v>358</v>
+      <c r="A369" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B369" s="12" t="s">
+        <v>365</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="370" ht="21" spans="1:3">
-      <c r="A370" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B370" s="9" t="s">
-        <v>359</v>
+      <c r="A370" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B370" s="12" t="s">
+        <v>366</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="371" ht="21" spans="1:3">
-      <c r="A371" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B371" s="9" t="s">
-        <v>360</v>
+      <c r="A371" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B371" s="12" t="s">
+        <v>367</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="372" ht="21" spans="1:3">
-      <c r="A372" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B372" s="9" t="s">
-        <v>361</v>
+      <c r="A372" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B372" s="12" t="s">
+        <v>368</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="373" ht="21" spans="1:3">
-      <c r="A373" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B373" s="9" t="s">
-        <v>362</v>
+      <c r="A373" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B373" s="12" t="s">
+        <v>369</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="374" ht="21" spans="1:3">
-      <c r="A374" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B374" s="9" t="s">
-        <v>363</v>
+      <c r="A374" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B374" s="12" t="s">
+        <v>370</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="375" ht="21" spans="1:3">
-      <c r="A375" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B375" s="9" t="s">
-        <v>364</v>
+      <c r="A375" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B375" s="12" t="s">
+        <v>371</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="376" ht="21" spans="1:3">
-      <c r="A376" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B376" s="9" t="s">
-        <v>365</v>
+      <c r="A376" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B376" s="12" t="s">
+        <v>372</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="377" ht="21" spans="1:3">
-      <c r="A377" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B377" s="9" t="s">
-        <v>366</v>
+      <c r="A377" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B377" s="12" t="s">
+        <v>373</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="378" ht="21" spans="1:3">
-      <c r="A378" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B378" s="9" t="s">
-        <v>367</v>
+      <c r="A378" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B378" s="12" t="s">
+        <v>374</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="379" ht="21" spans="1:3">
-      <c r="A379" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B379" s="9" t="s">
-        <v>368</v>
+      <c r="A379" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B379" s="12" t="s">
+        <v>375</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="380" ht="21" spans="1:3">
-      <c r="A380" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B380" s="9" t="s">
-        <v>369</v>
+      <c r="A380" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B380" s="12" t="s">
+        <v>376</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="381" ht="21" spans="1:3">
-      <c r="A381" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B381" s="9" t="s">
-        <v>370</v>
+      <c r="A381" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B381" s="12" t="s">
+        <v>377</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="382" ht="21" spans="1:3">
-      <c r="A382" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B382" s="9" t="s">
-        <v>371</v>
+      <c r="A382" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B382" s="12" t="s">
+        <v>378</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="383" ht="21" spans="1:3">
-      <c r="A383" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B383" s="9" t="s">
-        <v>372</v>
+      <c r="A383" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B383" s="12" t="s">
+        <v>379</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="384" ht="21" spans="1:3">
-      <c r="A384" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B384" s="9" t="s">
-        <v>373</v>
+      <c r="A384" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B384" s="12" t="s">
+        <v>380</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="385" ht="21" spans="1:3">
-      <c r="A385" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B385" s="9" t="s">
-        <v>374</v>
+      <c r="A385" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B385" s="12" t="s">
+        <v>381</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="386" ht="21" spans="1:3">
-      <c r="A386" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B386" s="9" t="s">
-        <v>375</v>
+      <c r="A386" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B386" s="12" t="s">
+        <v>382</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="387" ht="21" spans="1:3">
-      <c r="A387" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B387" s="9" t="s">
-        <v>376</v>
+      <c r="A387" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B387" s="12" t="s">
+        <v>383</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="388" ht="21" spans="1:3">
-      <c r="A388" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B388" s="9" t="s">
-        <v>377</v>
+      <c r="A388" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B388" s="12" t="s">
+        <v>384</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="389" ht="21" spans="1:3">
-      <c r="A389" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B389" s="9" t="s">
-        <v>378</v>
+      <c r="A389" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B389" s="12" t="s">
+        <v>385</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="390" ht="21" spans="1:3">
-      <c r="A390" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B390" s="9" t="s">
-        <v>378</v>
+      <c r="A390" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B390" s="12" t="s">
+        <v>385</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="391" ht="21" spans="1:3">
-      <c r="A391" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B391" s="9" t="s">
-        <v>379</v>
+      <c r="A391" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B391" s="12" t="s">
+        <v>386</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="392" ht="21" spans="1:3">
-      <c r="A392" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B392" s="9" t="s">
-        <v>380</v>
+      <c r="A392" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B392" s="12" t="s">
+        <v>387</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="393" ht="21" spans="1:3">
-      <c r="A393" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B393" s="9" t="s">
-        <v>381</v>
+      <c r="A393" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B393" s="12" t="s">
+        <v>388</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="394" ht="21" spans="1:3">
-      <c r="A394" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B394" s="9" t="s">
-        <v>382</v>
+      <c r="A394" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B394" s="12" t="s">
+        <v>389</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="395" ht="21" spans="1:3">
-      <c r="A395" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B395" s="9" t="s">
-        <v>383</v>
+      <c r="A395" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B395" s="12" t="s">
+        <v>390</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="396" ht="21" spans="1:3">
-      <c r="A396" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B396" s="9" t="s">
-        <v>384</v>
+      <c r="A396" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B396" s="12" t="s">
+        <v>391</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="397" ht="21" spans="1:3">
-      <c r="A397" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B397" s="9" t="s">
-        <v>385</v>
+      <c r="A397" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B397" s="12" t="s">
+        <v>392</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="398" ht="21" spans="1:3">
-      <c r="A398" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B398" s="9" t="s">
-        <v>386</v>
+      <c r="A398" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B398" s="12" t="s">
+        <v>393</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="399" ht="21" spans="1:3">
-      <c r="A399" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B399" s="9" t="s">
-        <v>387</v>
+      <c r="A399" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B399" s="12" t="s">
+        <v>394</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="400" ht="21" spans="2:3">
-      <c r="B400" s="10"/>
+      <c r="B400" s="13"/>
       <c r="C400" s="5"/>
     </row>
     <row r="401" ht="21" spans="2:3">
-      <c r="B401" s="10"/>
+      <c r="B401" s="13"/>
       <c r="C401" s="5"/>
     </row>
     <row r="402" ht="21" spans="1:3">
-      <c r="A402" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="B402" s="9" t="s">
-        <v>389</v>
+      <c r="A402" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="B402" s="12" t="s">
+        <v>396</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="403" ht="21" spans="1:3">
-      <c r="A403" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="B403" s="9" t="s">
-        <v>390</v>
+      <c r="A403" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="B403" s="12" t="s">
+        <v>397</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="404" ht="21" spans="1:3">
-      <c r="A404" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="B404" s="9" t="s">
-        <v>391</v>
+      <c r="A404" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="B404" s="12" t="s">
+        <v>398</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="405" ht="21" spans="1:3">
-      <c r="A405" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="B405" s="9" t="s">
-        <v>90</v>
+      <c r="A405" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="B405" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="406" ht="21" spans="1:3">
-      <c r="A406" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="B406" s="9" t="s">
-        <v>392</v>
+      <c r="A406" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="B406" s="12" t="s">
+        <v>399</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="407" ht="21" spans="1:3">
-      <c r="A407" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="B407" s="9" t="s">
-        <v>393</v>
+      <c r="A407" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="B407" s="12" t="s">
+        <v>400</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="408" ht="21" spans="2:3">
-      <c r="B408" s="10"/>
+      <c r="B408" s="13"/>
       <c r="C408" s="5"/>
     </row>
     <row r="409" ht="21" spans="2:3">
-      <c r="B409" s="10"/>
+      <c r="B409" s="13"/>
       <c r="C409" s="5"/>
     </row>
     <row r="410" ht="21" spans="1:3">
       <c r="A410" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B410" s="9" t="s">
-        <v>395</v>
+        <v>401</v>
+      </c>
+      <c r="B410" s="12" t="s">
+        <v>402</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>5</v>
@@ -6742,10 +6817,10 @@
     </row>
     <row r="411" ht="21" spans="1:3">
       <c r="A411" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B411" s="9" t="s">
-        <v>396</v>
+        <v>401</v>
+      </c>
+      <c r="B411" s="12" t="s">
+        <v>403</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>5</v>
@@ -6753,10 +6828,10 @@
     </row>
     <row r="412" ht="21" spans="1:3">
       <c r="A412" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B412" s="9" t="s">
-        <v>397</v>
+        <v>401</v>
+      </c>
+      <c r="B412" s="12" t="s">
+        <v>404</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>5</v>
@@ -6764,10 +6839,10 @@
     </row>
     <row r="413" ht="21" spans="1:3">
       <c r="A413" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B413" s="9" t="s">
-        <v>398</v>
+        <v>401</v>
+      </c>
+      <c r="B413" s="12" t="s">
+        <v>405</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>5</v>
@@ -6775,10 +6850,10 @@
     </row>
     <row r="414" ht="21" spans="1:3">
       <c r="A414" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B414" s="9" t="s">
-        <v>399</v>
+        <v>401</v>
+      </c>
+      <c r="B414" s="12" t="s">
+        <v>406</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>5</v>
@@ -6786,10 +6861,10 @@
     </row>
     <row r="415" ht="21" spans="1:3">
       <c r="A415" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B415" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
+      </c>
+      <c r="B415" s="12" t="s">
+        <v>407</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>5</v>
@@ -6797,10 +6872,10 @@
     </row>
     <row r="416" ht="21" spans="1:3">
       <c r="A416" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B416" s="9" t="s">
         <v>401</v>
+      </c>
+      <c r="B416" s="12" t="s">
+        <v>408</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>5</v>
@@ -6808,10 +6883,10 @@
     </row>
     <row r="417" ht="21" spans="1:3">
       <c r="A417" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B417" s="9" t="s">
-        <v>274</v>
+        <v>401</v>
+      </c>
+      <c r="B417" s="12" t="s">
+        <v>281</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>5</v>
@@ -6819,10 +6894,10 @@
     </row>
     <row r="418" ht="21" spans="1:3">
       <c r="A418" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B418" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
+      </c>
+      <c r="B418" s="12" t="s">
+        <v>409</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>5</v>
@@ -6830,10 +6905,10 @@
     </row>
     <row r="419" ht="21" spans="1:3">
       <c r="A419" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B419" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
+      </c>
+      <c r="B419" s="12" t="s">
+        <v>410</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>5</v>
@@ -6841,10 +6916,10 @@
     </row>
     <row r="420" ht="21" spans="1:3">
       <c r="A420" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B420" s="9" t="s">
-        <v>404</v>
+        <v>401</v>
+      </c>
+      <c r="B420" s="12" t="s">
+        <v>411</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>5</v>
@@ -6852,10 +6927,10 @@
     </row>
     <row r="421" ht="21" spans="1:3">
       <c r="A421" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B421" s="9" t="s">
-        <v>405</v>
+        <v>401</v>
+      </c>
+      <c r="B421" s="12" t="s">
+        <v>412</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>5</v>
@@ -6863,10 +6938,10 @@
     </row>
     <row r="422" ht="21" spans="1:3">
       <c r="A422" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B422" s="9" t="s">
-        <v>406</v>
+        <v>401</v>
+      </c>
+      <c r="B422" s="12" t="s">
+        <v>413</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>5</v>
@@ -6874,10 +6949,10 @@
     </row>
     <row r="423" ht="21" spans="1:3">
       <c r="A423" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B423" s="9" t="s">
-        <v>407</v>
+        <v>401</v>
+      </c>
+      <c r="B423" s="12" t="s">
+        <v>414</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>5</v>
@@ -6885,10 +6960,10 @@
     </row>
     <row r="424" ht="21" spans="1:3">
       <c r="A424" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B424" s="9" t="s">
-        <v>408</v>
+        <v>401</v>
+      </c>
+      <c r="B424" s="12" t="s">
+        <v>415</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>5</v>
@@ -6896,10 +6971,10 @@
     </row>
     <row r="425" ht="21" spans="1:3">
       <c r="A425" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B425" s="9" t="s">
-        <v>409</v>
+        <v>401</v>
+      </c>
+      <c r="B425" s="12" t="s">
+        <v>416</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>5</v>
@@ -6907,10 +6982,10 @@
     </row>
     <row r="426" ht="21" spans="1:3">
       <c r="A426" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B426" s="9" t="s">
-        <v>410</v>
+        <v>401</v>
+      </c>
+      <c r="B426" s="12" t="s">
+        <v>417</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>5</v>
@@ -6918,10 +6993,10 @@
     </row>
     <row r="427" ht="21" spans="1:3">
       <c r="A427" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B427" s="9" t="s">
-        <v>411</v>
+        <v>401</v>
+      </c>
+      <c r="B427" s="12" t="s">
+        <v>418</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>5</v>
@@ -6929,10 +7004,10 @@
     </row>
     <row r="428" ht="21" spans="1:3">
       <c r="A428" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B428" s="9" t="s">
-        <v>412</v>
+        <v>401</v>
+      </c>
+      <c r="B428" s="12" t="s">
+        <v>419</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>5</v>
@@ -6940,10 +7015,10 @@
     </row>
     <row r="429" ht="21" spans="1:3">
       <c r="A429" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B429" s="9" t="s">
-        <v>413</v>
+        <v>401</v>
+      </c>
+      <c r="B429" s="12" t="s">
+        <v>420</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>5</v>
@@ -6951,10 +7026,10 @@
     </row>
     <row r="430" ht="21" spans="1:3">
       <c r="A430" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B430" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
+      </c>
+      <c r="B430" s="12" t="s">
+        <v>421</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>5</v>
@@ -6962,10 +7037,10 @@
     </row>
     <row r="431" ht="21" spans="1:3">
       <c r="A431" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B431" s="9" t="s">
-        <v>415</v>
+        <v>401</v>
+      </c>
+      <c r="B431" s="12" t="s">
+        <v>422</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>5</v>
@@ -6973,10 +7048,10 @@
     </row>
     <row r="432" ht="21" spans="1:3">
       <c r="A432" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B432" s="9" t="s">
-        <v>416</v>
+        <v>401</v>
+      </c>
+      <c r="B432" s="12" t="s">
+        <v>423</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>5</v>
@@ -6984,10 +7059,10 @@
     </row>
     <row r="433" ht="21" spans="1:3">
       <c r="A433" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B433" s="9" t="s">
-        <v>417</v>
+        <v>401</v>
+      </c>
+      <c r="B433" s="12" t="s">
+        <v>424</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>5</v>
@@ -6995,10 +7070,10 @@
     </row>
     <row r="434" ht="21" spans="1:3">
       <c r="A434" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B434" s="9" t="s">
-        <v>418</v>
+        <v>401</v>
+      </c>
+      <c r="B434" s="12" t="s">
+        <v>425</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>5</v>
@@ -7006,10 +7081,10 @@
     </row>
     <row r="435" ht="21" spans="1:3">
       <c r="A435" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B435" s="9" t="s">
-        <v>419</v>
+        <v>401</v>
+      </c>
+      <c r="B435" s="12" t="s">
+        <v>426</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>5</v>
@@ -7017,10 +7092,10 @@
     </row>
     <row r="436" ht="21" spans="1:3">
       <c r="A436" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B436" s="9" t="s">
-        <v>420</v>
+        <v>401</v>
+      </c>
+      <c r="B436" s="12" t="s">
+        <v>427</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>5</v>
@@ -7028,10 +7103,10 @@
     </row>
     <row r="437" ht="21" spans="1:3">
       <c r="A437" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B437" s="9" t="s">
-        <v>421</v>
+        <v>401</v>
+      </c>
+      <c r="B437" s="12" t="s">
+        <v>428</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>5</v>
@@ -7039,10 +7114,10 @@
     </row>
     <row r="438" ht="21" spans="1:3">
       <c r="A438" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B438" s="9" t="s">
-        <v>422</v>
+        <v>401</v>
+      </c>
+      <c r="B438" s="12" t="s">
+        <v>429</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>5</v>
@@ -7050,10 +7125,10 @@
     </row>
     <row r="439" ht="21" spans="1:3">
       <c r="A439" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B439" s="9" t="s">
-        <v>423</v>
+        <v>401</v>
+      </c>
+      <c r="B439" s="12" t="s">
+        <v>430</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>5</v>
@@ -7061,10 +7136,10 @@
     </row>
     <row r="440" ht="21" spans="1:3">
       <c r="A440" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B440" s="9" t="s">
-        <v>424</v>
+        <v>401</v>
+      </c>
+      <c r="B440" s="12" t="s">
+        <v>431</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>5</v>
@@ -7072,10 +7147,10 @@
     </row>
     <row r="441" ht="21" spans="1:3">
       <c r="A441" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B441" s="9" t="s">
-        <v>425</v>
+        <v>401</v>
+      </c>
+      <c r="B441" s="12" t="s">
+        <v>432</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>5</v>
@@ -7083,10 +7158,10 @@
     </row>
     <row r="442" ht="21" spans="1:3">
       <c r="A442" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B442" s="9" t="s">
-        <v>426</v>
+        <v>401</v>
+      </c>
+      <c r="B442" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>5</v>
@@ -7094,10 +7169,10 @@
     </row>
     <row r="443" ht="21" spans="1:3">
       <c r="A443" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B443" s="9" t="s">
-        <v>427</v>
+        <v>401</v>
+      </c>
+      <c r="B443" s="12" t="s">
+        <v>434</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>5</v>
@@ -7105,10 +7180,10 @@
     </row>
     <row r="444" ht="21" spans="1:3">
       <c r="A444" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B444" s="9" t="s">
-        <v>428</v>
+        <v>401</v>
+      </c>
+      <c r="B444" s="12" t="s">
+        <v>435</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>5</v>
@@ -7116,10 +7191,10 @@
     </row>
     <row r="445" ht="21" spans="1:3">
       <c r="A445" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B445" s="9" t="s">
-        <v>429</v>
+        <v>401</v>
+      </c>
+      <c r="B445" s="12" t="s">
+        <v>436</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>5</v>
@@ -7127,10 +7202,10 @@
     </row>
     <row r="446" ht="21" spans="1:3">
       <c r="A446" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B446" s="9" t="s">
-        <v>430</v>
+        <v>401</v>
+      </c>
+      <c r="B446" s="12" t="s">
+        <v>437</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>5</v>
@@ -7138,10 +7213,10 @@
     </row>
     <row r="447" ht="21" spans="1:3">
       <c r="A447" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B447" s="9" t="s">
-        <v>431</v>
+        <v>401</v>
+      </c>
+      <c r="B447" s="12" t="s">
+        <v>438</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>5</v>
@@ -7149,10 +7224,10 @@
     </row>
     <row r="448" ht="21" spans="1:3">
       <c r="A448" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B448" s="9" t="s">
-        <v>432</v>
+        <v>401</v>
+      </c>
+      <c r="B448" s="12" t="s">
+        <v>439</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>5</v>
@@ -7160,10 +7235,10 @@
     </row>
     <row r="449" ht="21" spans="1:3">
       <c r="A449" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B449" s="9" t="s">
-        <v>433</v>
+        <v>401</v>
+      </c>
+      <c r="B449" s="12" t="s">
+        <v>440</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>5</v>
@@ -7171,10 +7246,10 @@
     </row>
     <row r="450" ht="21" spans="1:3">
       <c r="A450" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B450" s="9" t="s">
-        <v>434</v>
+        <v>401</v>
+      </c>
+      <c r="B450" s="12" t="s">
+        <v>441</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>5</v>
@@ -7182,10 +7257,10 @@
     </row>
     <row r="451" ht="21" spans="1:3">
       <c r="A451" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B451" s="9" t="s">
-        <v>435</v>
+        <v>401</v>
+      </c>
+      <c r="B451" s="12" t="s">
+        <v>442</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>5</v>
@@ -7193,10 +7268,10 @@
     </row>
     <row r="452" ht="21" spans="1:3">
       <c r="A452" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B452" s="9" t="s">
-        <v>436</v>
+        <v>401</v>
+      </c>
+      <c r="B452" s="12" t="s">
+        <v>443</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>5</v>
@@ -7204,10 +7279,10 @@
     </row>
     <row r="453" ht="21" spans="1:3">
       <c r="A453" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B453" s="9" t="s">
-        <v>437</v>
+        <v>401</v>
+      </c>
+      <c r="B453" s="12" t="s">
+        <v>444</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>5</v>
@@ -7215,10 +7290,10 @@
     </row>
     <row r="454" ht="21" spans="1:3">
       <c r="A454" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B454" s="9" t="s">
-        <v>438</v>
+        <v>401</v>
+      </c>
+      <c r="B454" s="12" t="s">
+        <v>445</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>5</v>
@@ -7226,10 +7301,10 @@
     </row>
     <row r="455" ht="21" spans="1:3">
       <c r="A455" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B455" s="9" t="s">
-        <v>439</v>
+        <v>401</v>
+      </c>
+      <c r="B455" s="12" t="s">
+        <v>446</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>5</v>
@@ -7237,10 +7312,10 @@
     </row>
     <row r="456" ht="21" spans="1:3">
       <c r="A456" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B456" s="9" t="s">
-        <v>440</v>
+        <v>401</v>
+      </c>
+      <c r="B456" s="12" t="s">
+        <v>447</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>5</v>
@@ -7248,10 +7323,10 @@
     </row>
     <row r="457" ht="21" spans="1:3">
       <c r="A457" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B457" s="9" t="s">
-        <v>441</v>
+        <v>401</v>
+      </c>
+      <c r="B457" s="12" t="s">
+        <v>448</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>5</v>
@@ -7259,10 +7334,10 @@
     </row>
     <row r="458" ht="21" spans="1:3">
       <c r="A458" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B458" s="9" t="s">
-        <v>442</v>
+        <v>401</v>
+      </c>
+      <c r="B458" s="12" t="s">
+        <v>449</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>5</v>
@@ -7270,10 +7345,10 @@
     </row>
     <row r="459" ht="21" spans="1:3">
       <c r="A459" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B459" s="9" t="s">
-        <v>443</v>
+        <v>401</v>
+      </c>
+      <c r="B459" s="12" t="s">
+        <v>450</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>5</v>
@@ -7281,10 +7356,10 @@
     </row>
     <row r="460" ht="21" spans="1:3">
       <c r="A460" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B460" s="9" t="s">
-        <v>444</v>
+        <v>401</v>
+      </c>
+      <c r="B460" s="12" t="s">
+        <v>451</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>5</v>
@@ -7292,10 +7367,10 @@
     </row>
     <row r="461" ht="21" spans="1:3">
       <c r="A461" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B461" s="9" t="s">
-        <v>445</v>
+        <v>401</v>
+      </c>
+      <c r="B461" s="12" t="s">
+        <v>452</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>5</v>
@@ -7303,10 +7378,10 @@
     </row>
     <row r="462" ht="21" spans="1:3">
       <c r="A462" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B462" s="9" t="s">
-        <v>446</v>
+        <v>401</v>
+      </c>
+      <c r="B462" s="12" t="s">
+        <v>453</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>5</v>
@@ -7314,10 +7389,10 @@
     </row>
     <row r="463" ht="21" spans="1:3">
       <c r="A463" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B463" s="9" t="s">
-        <v>447</v>
+        <v>401</v>
+      </c>
+      <c r="B463" s="12" t="s">
+        <v>454</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>5</v>
@@ -7325,10 +7400,10 @@
     </row>
     <row r="464" ht="21" spans="1:3">
       <c r="A464" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B464" s="9" t="s">
-        <v>448</v>
+        <v>401</v>
+      </c>
+      <c r="B464" s="12" t="s">
+        <v>455</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>5</v>
@@ -7336,10 +7411,10 @@
     </row>
     <row r="465" ht="21" spans="1:3">
       <c r="A465" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B465" s="9" t="s">
-        <v>449</v>
+        <v>401</v>
+      </c>
+      <c r="B465" s="12" t="s">
+        <v>456</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>5</v>
@@ -7347,10 +7422,10 @@
     </row>
     <row r="466" ht="21" spans="1:3">
       <c r="A466" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B466" s="9" t="s">
-        <v>450</v>
+        <v>401</v>
+      </c>
+      <c r="B466" s="12" t="s">
+        <v>457</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>5</v>
@@ -7358,10 +7433,10 @@
     </row>
     <row r="467" ht="21" spans="1:3">
       <c r="A467" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B467" s="9" t="s">
-        <v>451</v>
+        <v>401</v>
+      </c>
+      <c r="B467" s="12" t="s">
+        <v>458</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>5</v>
@@ -7369,10 +7444,10 @@
     </row>
     <row r="468" ht="21" spans="1:3">
       <c r="A468" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B468" s="9" t="s">
-        <v>452</v>
+        <v>401</v>
+      </c>
+      <c r="B468" s="12" t="s">
+        <v>459</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>5</v>
@@ -7380,30 +7455,30 @@
     </row>
     <row r="469" ht="21" spans="1:3">
       <c r="A469" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B469" s="9" t="s">
-        <v>453</v>
+        <v>401</v>
+      </c>
+      <c r="B469" s="12" t="s">
+        <v>460</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="470" ht="21" spans="2:3">
-      <c r="B470" s="10"/>
+      <c r="B470" s="13"/>
       <c r="C470" s="5"/>
     </row>
     <row r="471" ht="21" spans="1:3">
-      <c r="A471" s="11"/>
-      <c r="B471" s="10"/>
+      <c r="A471" s="14"/>
+      <c r="B471" s="13"/>
       <c r="C471" s="5"/>
     </row>
     <row r="472" ht="21" spans="1:3">
       <c r="A472" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B472" s="9" t="s">
-        <v>455</v>
+        <v>461</v>
+      </c>
+      <c r="B472" s="12" t="s">
+        <v>462</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>5</v>
@@ -7411,10 +7486,10 @@
     </row>
     <row r="473" ht="21" spans="1:3">
       <c r="A473" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B473" s="9" t="s">
-        <v>456</v>
+        <v>461</v>
+      </c>
+      <c r="B473" s="12" t="s">
+        <v>463</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>5</v>
@@ -7422,10 +7497,10 @@
     </row>
     <row r="474" ht="21" spans="1:3">
       <c r="A474" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B474" s="9" t="s">
-        <v>457</v>
+        <v>461</v>
+      </c>
+      <c r="B474" s="12" t="s">
+        <v>464</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>5</v>
@@ -7433,10 +7508,10 @@
     </row>
     <row r="475" ht="21" spans="1:3">
       <c r="A475" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B475" s="9" t="s">
-        <v>458</v>
+        <v>461</v>
+      </c>
+      <c r="B475" s="12" t="s">
+        <v>465</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>5</v>
@@ -7444,10 +7519,10 @@
     </row>
     <row r="476" ht="21" spans="1:3">
       <c r="A476" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B476" s="9" t="s">
-        <v>459</v>
+        <v>461</v>
+      </c>
+      <c r="B476" s="12" t="s">
+        <v>466</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>5</v>
@@ -7455,10 +7530,10 @@
     </row>
     <row r="477" ht="21" spans="1:3">
       <c r="A477" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B477" s="9" t="s">
-        <v>460</v>
+        <v>461</v>
+      </c>
+      <c r="B477" s="12" t="s">
+        <v>467</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>5</v>
@@ -7466,10 +7541,10 @@
     </row>
     <row r="478" ht="21" spans="1:3">
       <c r="A478" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B478" s="9" t="s">
         <v>461</v>
+      </c>
+      <c r="B478" s="12" t="s">
+        <v>468</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>5</v>
@@ -7477,10 +7552,10 @@
     </row>
     <row r="479" ht="21" spans="1:3">
       <c r="A479" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B479" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
+      </c>
+      <c r="B479" s="12" t="s">
+        <v>469</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>5</v>
@@ -7488,10 +7563,10 @@
     </row>
     <row r="480" ht="21" spans="1:3">
       <c r="A480" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B480" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
+      </c>
+      <c r="B480" s="12" t="s">
+        <v>470</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>5</v>
@@ -7499,10 +7574,10 @@
     </row>
     <row r="481" ht="21" spans="1:3">
       <c r="A481" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B481" s="9" t="s">
-        <v>464</v>
+        <v>461</v>
+      </c>
+      <c r="B481" s="12" t="s">
+        <v>471</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>5</v>
